--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8月19日工作日志</t>
+          <t>8月12日工作日志</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、标准版成人模板测试用例编写与设计；  2、测试用例优化与上传git  3、宝山区承认模板测试用例设计与编写；  4、孕产妇模板测试用例编写与设计  5、部门例会；</t>
+          <t xml:space="preserve">  1、社区健康接口文档查看，评估接口梳理；  2、梳理社区健康评估底层规则、开始评估、评估结果、评估页面、评估报告；  3、查看评估报告模板；  4、数据库表结构整理，字段关联性梳理；  &lt;br /&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-08-19 17:56:57</t>
+          <t>2024-08-12 00:00:00</t>
         </is>
       </c>
     </row>
@@ -498,12 +498,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8月20日工作日志</t>
+          <t>8月13日工作日志</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、学生模板测试用例编写与设计；  2、宝山区承认模板测试用例设计与编写；  3、孕产妇模板测试用例编写与设计  4、批量评估流程验证；  &lt;br /&gt;</t>
+          <t xml:space="preserve">  1、社区健康标准版成人模块测试用例整理；  2、社区健康标准版宝山区成人模块测试用例整理；  3、社区健康项目信息表，服务器、数据库、等信息维护；  4、模板取值逻辑整理；  5、社区健康日志存放路径整理；  6、社区健康规则引擎逻辑验证；</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-08-20 17:57:27</t>
+          <t>2024-08-13 17:54:56</t>
         </is>
       </c>
     </row>
@@ -525,17 +525,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>社区健康管理中心</t>
+          <t>区域公共卫生管理系统</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8月21日工作日志</t>
+          <t>8月14日工作日志</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、评估建议模板维护需求梳理，测试用例设计；  2、引用评估建议模板需求梳理，测试用例设计；  3、公卫现场问题验证与排查；  &lt;br /&gt;</t>
+          <t xml:space="preserve">  1、高血压管理模块回归测试，测试报病流程，随访流程，登记流程  2、个人健康档案导航栏回归测试；  3、线上问题处理，数据验证等；</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -545,29 +545,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-08-21 17:57:13</t>
+          <t>2024-08-14 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>陈晓东</t>
+          <t>舒阳阳</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>招远妇幼保健系统项目</t>
+          <t>区域公共卫生管理系统</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.19工作日志</t>
+          <t>8月15日工作日志</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  测试护士版本功能：  1非药品类医嘱每日自动执行http://103.25.65.103:8089/biz/story-view-1584.html&lt;br /&gt;2门诊输液瓶贴查询&lt;br /&gt;3门诊护士站-补计费功能&lt;br /&gt;4护理项目查询&lt;br /&gt;  5移植入出院患者信息一览页面到妇保院  问题反馈  版本升级  正式环境问题   &lt;br /&gt; </t>
+          <t xml:space="preserve">  1.公卫接口自动化框架设计；  2、脚本编写与调试；  3、接口文档数据关联梳理；  4、token获取方式解析；</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -577,29 +577,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-08-19 18:02:09</t>
+          <t>2024-08-15 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>陈晓东</t>
+          <t>舒阳阳</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>招远妇幼保健系统项目</t>
+          <t>区域公共卫生管理系统</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.20工作日志</t>
+          <t>8月16日工作日志</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1非药品类医嘱每日自动执行&lt;br /&gt;数据配置&lt;br /&gt;非药品医嘱开立-发送-确认-计费&lt;br /&gt;非药品医嘱开立-发送-确认-定时器计费&lt;br /&gt;2护理项目查询功能测试&lt;br /&gt;3入出院患者信息一览页面到妇保院功能测试，bug提交&lt;br /&gt;4体检异常名单匹配-数据维护配置，功能测试&lt;br /&gt;5医生信息维护-功能测试&lt;br /&gt;6科室信息维护-功能测试&lt;br /&gt;   &lt;br /&gt; </t>
+          <t xml:space="preserve">  1、糖尿病管理模块回归测试，测试报病流程，随访流程，登记流程  2、个人健康档案导航栏回归测试；  3、线上问题处理，数据验证等；</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -609,71 +609,423 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-08-20 18:01:14</t>
+          <t>2024-08-16 17:58:35</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>陈晓东</t>
+          <t>舒阳阳</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>招远妇幼保健系统项目</t>
+          <t>社区健康管理中心</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.21工作日志</t>
+          <t>8月19日工作日志</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1入出院患者信息一览页面到妇保院功能测试，bug验证  2体检异常名单匹配功能测试  3医生排班-功能测试  4检查确费页面从云HIS移植-门诊站检查流程测试                        住院检查-流程测试  5版本发布  6定位正式环境-会诊单-医生无权限提交-问题 - 进行中   &lt;br /&gt; </t>
+          <t xml:space="preserve">  1、标准版成人模板测试用例编写与设计；  2、测试用例优化与上传git  3、宝山区承认模板测试用例设计与编写；  4、孕产妇模板测试用例编写与设计  5、部门例会；</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-08-21 18:00:56</t>
+          <t>2024-08-19 17:56:57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>社区健康管理中心</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8月20日工作日志</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、学生模板测试用例编写与设计；  2、宝山区承认模板测试用例设计与编写；  3、孕产妇模板测试用例编写与设计  4、批量评估流程验证；  &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-08-20 17:57:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>社区健康管理中心</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8月21日工作日志</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、评估建议模板维护需求梳理，测试用例设计；  2、引用评估建议模板需求梳理，测试用例设计；  3、公卫现场问题验证与排查；  &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-08-21 17:57:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>陈晓东</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8.12工作日志</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  确认回归-云his所提bug  1病历中出现多余空格和空行2病案首页中药敏结果显示错误，手动添加药敏结果显示其它，不显示具体过敏药物名称&lt;br /&gt;3病案首页第二页格式不对，手术下面一栏不显示&lt;br /&gt;4检查报告端口问题仍未解决，病房仍不能查看检查报告&lt;br /&gt;5病程记录在电脑上看时无空格及空行，但是打印出来后纸质版显示有空格及空行。&lt;br /&gt;病区医嘱查询太卡，不能查询当日医嘱，建议增加查询日期时间，优化查询功能&lt;br /&gt;6.出院小结里出院诊断引用不全，请完善&lt;br /&gt;  7口服药治疗单无法打印。  版本升级：  1正式环境功能确认  妇幼系统：  1新需求确认  2编写测试用例  &lt;br /&gt;&lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-08-12 18:05:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8.13工作日志</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  验证现场所提问题：  1.出院小结里出院诊断引用不全，请完善。&lt;br /&gt;2.护理病历里的内容直接切换床号不显示数据。-非bug，需要点击左侧对应目录&lt;br /&gt;3非计划拔管评估，是口否口无法打钩 -模板问题&lt;br /&gt;4出院小结中出院诊断有时显示不全入院诊断。-需再确认&lt;br /&gt;5住院化验单经常打印不全。 -打印预览正常，需实打确认&lt;br /&gt;6门诊系统：来院门诊患者有的就诊记录显示，有的确有就诊记录，但系统不显示，查找不到。-偶发性问题，需再确认  编写：体检异常名单匹配挂号信息-测试用例  护理体温单：版本发布，测试儿童体温单样式及功能 - 进行中  &lt;br /&gt;   &lt;br /&gt;   &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-08-13 18:05:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8.14工作日志</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1儿童体温单-配置维护  2儿童体温单-样式比对测试  3儿童体温单-数据录入及显示功能测试  4体温单问题反馈  5批量录入体温单-整体流程测试  6 3.1.6.19 需求整体验证  7版本及配置维护</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-08-14 18:05:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8.15工作日志</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1妇幼新增-功能体检异常名单匹配挂号信息-用例编写  2妇幼移植功能-医生信息页面更改功能确认，设计文档查看  3科室维护页面-功能修改功能确认，设计文档查看  4医生排班-维护页面-功能修改功能确认，设计文档查看  5病历及瓶贴实打跟进确认  6妇幼功能问题确认</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-08-15 17:55:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.16工作日志</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1妇幼新增-功能体检异常名单匹配挂号信息-数据维护&lt;br /&gt;2代码维护-医生信息页面更改功能确认，用例编写&lt;br /&gt;3科室维护页面-功能修改功能确认，用例编写&lt;br /&gt;4医生排班-功能修改确认，数据维护&lt;br /&gt;5病历及瓶贴实打现场确认&lt;br /&gt;6妇幼问题处理-发票信息无法查询 --进行中&lt;br /&gt;   &lt;br /&gt; </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-08-16 17:58:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8.19工作日志</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  测试护士版本功能：  1非药品类医嘱每日自动执行http://103.25.65.103:8089/biz/story-view-1584.html&lt;br /&gt;2门诊输液瓶贴查询&lt;br /&gt;3门诊护士站-补计费功能&lt;br /&gt;4护理项目查询&lt;br /&gt;  5移植入出院患者信息一览页面到妇保院  问题反馈  版本升级  正式环境问题   &lt;br /&gt; </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-08-19 18:02:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8.20工作日志</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1非药品类医嘱每日自动执行&lt;br /&gt;数据配置&lt;br /&gt;非药品医嘱开立-发送-确认-计费&lt;br /&gt;非药品医嘱开立-发送-确认-定时器计费&lt;br /&gt;2护理项目查询功能测试&lt;br /&gt;3入出院患者信息一览页面到妇保院功能测试，bug提交&lt;br /&gt;4体检异常名单匹配-数据维护配置，功能测试&lt;br /&gt;5医生信息维护-功能测试&lt;br /&gt;6科室信息维护-功能测试&lt;br /&gt;   &lt;br /&gt; </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-08-20 18:01:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8.21工作日志</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1入出院患者信息一览页面到妇保院功能测试，bug验证  2体检异常名单匹配功能测试  3医生排班-功能测试  4检查确费页面从云HIS移植-门诊站检查流程测试                        住院检查-流程测试  5版本发布  6定位正式环境-会诊单-医生无权限提交-问题 - 进行中   &lt;br /&gt; </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-08-21 18:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>区域公共卫生管理系统</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>8.21工作日志</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1处理老年人体检数据上传后，公卫系统无数据问题 -已解决&lt;br /&gt;2 处理-接诊信息查询，导入就诊记录，提示已经导入问题 -已解决&lt;br /&gt;</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2024-08-21 18:01:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8.22工作日志</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1体检异常名单匹配挂号信息-挂号接口场景测试  2药房-药品养护类别查询-bug修改-流程测试  3检查确费查询，诊断直接使用存好的文本即可，不再使用诊断ID去查询-确费流程测试&lt;br /&gt;  	4随访-移动端接口问题确认      	5正式环境-病例审核-问题确认      	6社区健康-需求评审  &lt;br /&gt;   	&lt;br /&gt;    &lt;br /&gt; </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-08-22 18:02:28</t>
         </is>
       </c>
     </row>

--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8月12日工作日志</t>
+          <t>9月9日工作日志</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、社区健康接口文档查看，评估接口梳理；  2、梳理社区健康评估底层规则、开始评估、评估结果、评估页面、评估报告；  3、查看评估报告模板；  4、数据库表结构整理，字段关联性梳理；  &lt;br /&gt;</t>
+          <t xml:space="preserve">  1、孕妇规则测试，页面数据验证，bug提交与验证；  2、菊泉生产环境儿童评估报告测试与验证数据；  3、测试规则数据反查管理建议体现测试；  &lt;br /&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-08-12 00:00:00</t>
+          <t>2024-09-09 17:45:26</t>
         </is>
       </c>
     </row>
@@ -493,49 +493,49 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>社区健康管理中心</t>
+          <t>区域公共卫生管理系统</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8月13日工作日志</t>
+          <t>9月9日工作日志</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、社区健康标准版成人模块测试用例整理；  2、社区健康标准版宝山区成人模块测试用例整理；  3、社区健康项目信息表，服务器、数据库、等信息维护；  4、模板取值逻辑整理；  5、社区健康日志存放路径整理；  6、社区健康规则引擎逻辑验证；</t>
+          <t xml:space="preserve">  1、禅道bug验证与测试；  2、需求问题沟通；  3、生产打包发布预发布环境；  4、测试报告编写与打包</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-08-13 17:54:56</t>
+          <t>2024-09-09 17:46:41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>陈晓东</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>区域公共卫生管理系统</t>
+          <t>社区健康管理中心</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8月14日工作日志</t>
+          <t>9.9工作日志</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、高血压管理模块回归测试，测试报病流程，随访流程，登记流程  2、个人健康档案导航栏回归测试；  3、线上问题处理，数据验证等；</t>
+          <t xml:space="preserve">  1测试评估因素规则-数据维护  2测试评估因素规则取值&lt;br /&gt;3问题反馈，回归&lt;br /&gt;  &lt;br /&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -545,487 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-08-14 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>舒阳阳</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>区域公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8月15日工作日志</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1.公卫接口自动化框架设计；  2、脚本编写与调试；  3、接口文档数据关联梳理；  4、token获取方式解析；</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024-08-15 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>舒阳阳</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>区域公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8月16日工作日志</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1、糖尿病管理模块回归测试，测试报病流程，随访流程，登记流程  2、个人健康档案导航栏回归测试；  3、线上问题处理，数据验证等；</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-08-16 17:58:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>舒阳阳</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>社区健康管理中心</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8月19日工作日志</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1、标准版成人模板测试用例编写与设计；  2、测试用例优化与上传git  3、宝山区承认模板测试用例设计与编写；  4、孕产妇模板测试用例编写与设计  5、部门例会；</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024-08-19 17:56:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>舒阳阳</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>社区健康管理中心</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8月20日工作日志</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1、学生模板测试用例编写与设计；  2、宝山区承认模板测试用例设计与编写；  3、孕产妇模板测试用例编写与设计  4、批量评估流程验证；  &lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024-08-20 17:57:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>舒阳阳</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>社区健康管理中心</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8月21日工作日志</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1、评估建议模板维护需求梳理，测试用例设计；  2、引用评估建议模板需求梳理，测试用例设计；  3、公卫现场问题验证与排查；  &lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2024-08-21 17:57:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>区域HIS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8.12工作日志</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  确认回归-云his所提bug  1病历中出现多余空格和空行2病案首页中药敏结果显示错误，手动添加药敏结果显示其它，不显示具体过敏药物名称&lt;br /&gt;3病案首页第二页格式不对，手术下面一栏不显示&lt;br /&gt;4检查报告端口问题仍未解决，病房仍不能查看检查报告&lt;br /&gt;5病程记录在电脑上看时无空格及空行，但是打印出来后纸质版显示有空格及空行。&lt;br /&gt;病区医嘱查询太卡，不能查询当日医嘱，建议增加查询日期时间，优化查询功能&lt;br /&gt;6.出院小结里出院诊断引用不全，请完善&lt;br /&gt;  7口服药治疗单无法打印。  版本升级：  1正式环境功能确认  妇幼系统：  1新需求确认  2编写测试用例  &lt;br /&gt;&lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2024-08-12 18:05:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>区域HIS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8.13工作日志</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  验证现场所提问题：  1.出院小结里出院诊断引用不全，请完善。&lt;br /&gt;2.护理病历里的内容直接切换床号不显示数据。-非bug，需要点击左侧对应目录&lt;br /&gt;3非计划拔管评估，是口否口无法打钩 -模板问题&lt;br /&gt;4出院小结中出院诊断有时显示不全入院诊断。-需再确认&lt;br /&gt;5住院化验单经常打印不全。 -打印预览正常，需实打确认&lt;br /&gt;6门诊系统：来院门诊患者有的就诊记录显示，有的确有就诊记录，但系统不显示，查找不到。-偶发性问题，需再确认  编写：体检异常名单匹配挂号信息-测试用例  护理体温单：版本发布，测试儿童体温单样式及功能 - 进行中  &lt;br /&gt;   &lt;br /&gt;   &lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2024-08-13 18:05:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>招远妇幼保健系统项目</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8.14工作日志</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1儿童体温单-配置维护  2儿童体温单-样式比对测试  3儿童体温单-数据录入及显示功能测试  4体温单问题反馈  5批量录入体温单-整体流程测试  6 3.1.6.19 需求整体验证  7版本及配置维护</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2024-08-14 18:05:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>招远妇幼保健系统项目</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8.15工作日志</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1妇幼新增-功能体检异常名单匹配挂号信息-用例编写  2妇幼移植功能-医生信息页面更改功能确认，设计文档查看  3科室维护页面-功能修改功能确认，设计文档查看  4医生排班-维护页面-功能修改功能确认，设计文档查看  5病历及瓶贴实打跟进确认  6妇幼功能问题确认</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2024-08-15 17:55:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>招远妇幼保健系统项目</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8.16工作日志</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1妇幼新增-功能体检异常名单匹配挂号信息-数据维护&lt;br /&gt;2代码维护-医生信息页面更改功能确认，用例编写&lt;br /&gt;3科室维护页面-功能修改功能确认，用例编写&lt;br /&gt;4医生排班-功能修改确认，数据维护&lt;br /&gt;5病历及瓶贴实打现场确认&lt;br /&gt;6妇幼问题处理-发票信息无法查询 --进行中&lt;br /&gt;   &lt;br /&gt; </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2024-08-16 17:58:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>招远妇幼保健系统项目</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>8.19工作日志</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  测试护士版本功能：  1非药品类医嘱每日自动执行http://103.25.65.103:8089/biz/story-view-1584.html&lt;br /&gt;2门诊输液瓶贴查询&lt;br /&gt;3门诊护士站-补计费功能&lt;br /&gt;4护理项目查询&lt;br /&gt;  5移植入出院患者信息一览页面到妇保院  问题反馈  版本升级  正式环境问题   &lt;br /&gt; </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2024-08-19 18:02:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>招远妇幼保健系统项目</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8.20工作日志</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1非药品类医嘱每日自动执行&lt;br /&gt;数据配置&lt;br /&gt;非药品医嘱开立-发送-确认-计费&lt;br /&gt;非药品医嘱开立-发送-确认-定时器计费&lt;br /&gt;2护理项目查询功能测试&lt;br /&gt;3入出院患者信息一览页面到妇保院功能测试，bug提交&lt;br /&gt;4体检异常名单匹配-数据维护配置，功能测试&lt;br /&gt;5医生信息维护-功能测试&lt;br /&gt;6科室信息维护-功能测试&lt;br /&gt;   &lt;br /&gt; </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2024-08-20 18:01:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>招远妇幼保健系统项目</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>8.21工作日志</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1入出院患者信息一览页面到妇保院功能测试，bug验证  2体检异常名单匹配功能测试  3医生排班-功能测试  4检查确费页面从云HIS移植-门诊站检查流程测试                        住院检查-流程测试  5版本发布  6定位正式环境-会诊单-医生无权限提交-问题 - 进行中   &lt;br /&gt; </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2024-08-21 18:00:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>区域公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8.21工作日志</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1处理老年人体检数据上传后，公卫系统无数据问题 -已解决&lt;br /&gt;2 处理-接诊信息查询，导入就诊记录，提示已经导入问题 -已解决&lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2024-08-21 18:01:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>招远妇幼保健系统项目</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8.22工作日志</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1体检异常名单匹配挂号信息-挂号接口场景测试  2药房-药品养护类别查询-bug修改-流程测试  3检查确费查询，诊断直接使用存好的文本即可，不再使用诊断ID去查询-确费流程测试&lt;br /&gt;  	4随访-移动端接口问题确认      	5正式环境-病例审核-问题确认      	6社区健康-需求评审  &lt;br /&gt;   	&lt;br /&gt;    &lt;br /&gt; </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2024-08-22 18:02:28</t>
+          <t>2024-09-09 18:02:56</t>
         </is>
       </c>
     </row>
